--- a/queens/config/templates/dukes_ch_6.xlsx
+++ b/queens/config/templates/dukes_ch_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\PycharmProjects\uk_energy_data_api\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\AppData\Local\queens\queens\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E12BF53-EDF8-4CBD-A57B-BCF262B104AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82CBD5F-A739-4B25-8A93-5561905DB031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="186">
   <si>
     <t>Production</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Used as transport fuels</t>
+  </si>
+  <si>
+    <t>Biomethane</t>
   </si>
 </sst>
 </file>
@@ -970,11 +973,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2408,11 +2417,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3097DE-6C1D-4158-B274-81048549102B}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3662,13 +3677,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBC9CBD-EC24-482D-A68C-CE2DAB94E409}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4320,11 +4338,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A036C72C-D71A-405C-A7BD-70BBE9DC3196}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4538,7 +4560,7 @@
         <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>180</v>
@@ -4558,7 +4580,7 @@
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
         <v>180</v>
@@ -5598,7 +5620,7 @@
         <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
         <v>184</v>
@@ -5661,7 +5683,7 @@
         <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
